--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_22.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:11.940000', '0:00:17.600000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:42.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:02:04.920000', '0:02:09.880000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:05.208150', '0:00:14.983242')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1252173913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:20.080000', '0:00:22.560000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.475</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[('0:00:23.586235', '0:00:28.578526')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.606060606060606</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[('0:01:12.272131', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(128.76, 133.56)]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[('0:00:41.080000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3355263157894737</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'D', 'E', 'A', 'D', 'E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[['G', 'C', 'D', 'G', 'C', 'D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[('0:00:00.366281', '0:00:20.172902')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:50.506553', '0:01:03.382018')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(49.06, 57.32)]</t>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(37.36, 44.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(40.38, 42.28)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
